--- a/docs/BOM_【主板】TripleKey主板_2024-05-09.xlsx
+++ b/docs/BOM_【主板】TripleKey主板_2024-05-09.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="BOM_【主板】TripleKey主板_2024-05-09" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="BOM_【主板】TripleKey主板_TripleKey主板" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="234">
   <si>
     <t>No.</t>
   </si>
@@ -85,10 +85,10 @@
     <t>0.405949</t>
   </si>
   <si>
-    <t>34381</t>
-  </si>
-  <si>
-    <t>190805</t>
+    <t>32734</t>
+  </si>
+  <si>
+    <t>181744</t>
   </si>
   <si>
     <t>0.406</t>
@@ -118,10 +118,10 @@
     <t>0.016021</t>
   </si>
   <si>
-    <t>292163</t>
-  </si>
-  <si>
-    <t>29413114</t>
+    <t>279847</t>
+  </si>
+  <si>
+    <t>28178496</t>
   </si>
   <si>
     <t>0.016</t>
@@ -142,10 +142,10 @@
     <t>0.036642</t>
   </si>
   <si>
-    <t>26772</t>
-  </si>
-  <si>
-    <t>2963179</t>
+    <t>17420</t>
+  </si>
+  <si>
+    <t>2132161</t>
   </si>
   <si>
     <t>0.0366</t>
@@ -169,10 +169,10 @@
     <t>0.028523</t>
   </si>
   <si>
-    <t>14059</t>
-  </si>
-  <si>
-    <t>4139403</t>
+    <t>7370</t>
+  </si>
+  <si>
+    <t>3433456</t>
   </si>
   <si>
     <t>0.0285</t>
@@ -199,10 +199,10 @@
     <t>0.417266</t>
   </si>
   <si>
-    <t>21642</t>
-  </si>
-  <si>
-    <t>64266</t>
+    <t>18630</t>
+  </si>
+  <si>
+    <t>55891</t>
   </si>
   <si>
     <t>0.417</t>
@@ -262,10 +262,10 @@
     <t>0.194379</t>
   </si>
   <si>
-    <t>14662</t>
-  </si>
-  <si>
-    <t>179748</t>
+    <t>10175</t>
+  </si>
+  <si>
+    <t>94294</t>
   </si>
   <si>
     <t>0.194</t>
@@ -292,10 +292,10 @@
     <t>0.845855</t>
   </si>
   <si>
-    <t>5259</t>
-  </si>
-  <si>
-    <t>15460</t>
+    <t>5237</t>
+  </si>
+  <si>
+    <t>15362</t>
   </si>
   <si>
     <t>0.846</t>
@@ -322,10 +322,10 @@
     <t>1.588</t>
   </si>
   <si>
-    <t>4314</t>
-  </si>
-  <si>
-    <t>15980</t>
+    <t>4302</t>
+  </si>
+  <si>
+    <t>15960</t>
   </si>
   <si>
     <t>10</t>
@@ -349,10 +349,10 @@
     <t>0.373908</t>
   </si>
   <si>
-    <t>949</t>
-  </si>
-  <si>
-    <t>2221</t>
+    <t>772</t>
+  </si>
+  <si>
+    <t>272</t>
   </si>
   <si>
     <t>0.374</t>
@@ -379,10 +379,10 @@
     <t>0.791869</t>
   </si>
   <si>
-    <t>3572</t>
-  </si>
-  <si>
-    <t>16710</t>
+    <t>3425</t>
+  </si>
+  <si>
+    <t>16668</t>
   </si>
   <si>
     <t>0.792</t>
@@ -412,7 +412,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>6469</t>
+    <t>3378</t>
   </si>
   <si>
     <t>0.834</t>
@@ -439,10 +439,10 @@
     <t>0.090702</t>
   </si>
   <si>
-    <t>30311</t>
-  </si>
-  <si>
-    <t>1864074</t>
+    <t>20887</t>
+  </si>
+  <si>
+    <t>1537862</t>
   </si>
   <si>
     <t>0.0907</t>
@@ -472,10 +472,10 @@
     <t>0.006222</t>
   </si>
   <si>
-    <t>78869</t>
-  </si>
-  <si>
-    <t>4116000</t>
+    <t>73975</t>
+  </si>
+  <si>
+    <t>3730468</t>
   </si>
   <si>
     <t>0.00622</t>
@@ -499,10 +499,10 @@
     <t>0.005732</t>
   </si>
   <si>
-    <t>143559</t>
-  </si>
-  <si>
-    <t>21617029</t>
+    <t>111555</t>
+  </si>
+  <si>
+    <t>18883032</t>
   </si>
   <si>
     <t>0.00573</t>
@@ -523,13 +523,13 @@
     <t>C21190</t>
   </si>
   <si>
-    <t>0.006231</t>
-  </si>
-  <si>
-    <t>57715</t>
-  </si>
-  <si>
-    <t>7168380</t>
+    <t>0.006228</t>
+  </si>
+  <si>
+    <t>111456</t>
+  </si>
+  <si>
+    <t>12929701</t>
   </si>
   <si>
     <t>0.00623</t>
@@ -553,10 +553,10 @@
     <t>0.006301</t>
   </si>
   <si>
-    <t>37286</t>
-  </si>
-  <si>
-    <t>1945080</t>
+    <t>34850</t>
+  </si>
+  <si>
+    <t>1697551</t>
   </si>
   <si>
     <t>0.0063</t>
@@ -577,16 +577,16 @@
     <t>C22950</t>
   </si>
   <si>
-    <t>0.006162</t>
-  </si>
-  <si>
-    <t>3936</t>
-  </si>
-  <si>
-    <t>470032</t>
-  </si>
-  <si>
-    <t>0.00616</t>
+    <t>0.006171</t>
+  </si>
+  <si>
+    <t>6397</t>
+  </si>
+  <si>
+    <t>392614</t>
+  </si>
+  <si>
+    <t>0.00617</t>
   </si>
   <si>
     <t>19</t>
@@ -634,10 +634,10 @@
     <t>0.128112</t>
   </si>
   <si>
-    <t>1232</t>
-  </si>
-  <si>
-    <t>16027</t>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>13874</t>
   </si>
   <si>
     <t>0.128</t>
@@ -646,28 +646,31 @@
     <t>21</t>
   </si>
   <si>
+    <t>ESP32-S3-WROOM-1-N16R2</t>
+  </si>
+  <si>
+    <t>U205</t>
+  </si>
+  <si>
+    <t>WIRELM-SMD_ESP32-S3-WROOM-1</t>
+  </si>
+  <si>
     <t>2.4GHz</t>
   </si>
   <si>
-    <t>U205</t>
-  </si>
-  <si>
-    <t>WIRELM-SMD_ESP32-S3-WROOM-1</t>
-  </si>
-  <si>
-    <t>ESP32-S3-WROOM-1-N8R2</t>
-  </si>
-  <si>
     <t>ESPRESSIF(乐鑫)</t>
   </si>
   <si>
-    <t>C2913204</t>
-  </si>
-  <si>
-    <t>28.21</t>
-  </si>
-  <si>
-    <t>184</t>
+    <t>C2913205</t>
+  </si>
+  <si>
+    <t>30.01</t>
+  </si>
+  <si>
+    <t>809</t>
+  </si>
+  <si>
+    <t>911</t>
   </si>
   <si>
     <t>22</t>
@@ -703,10 +706,10 @@
     <t>0.31507</t>
   </si>
   <si>
-    <t>5384</t>
-  </si>
-  <si>
-    <t>38347</t>
+    <t>4192</t>
+  </si>
+  <si>
+    <t>28475</t>
   </si>
   <si>
     <t>0.315</t>
@@ -2036,10 +2039,10 @@
         <v>213</v>
       </c>
       <c r="F22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" t="s">
         <v>211</v>
-      </c>
-      <c r="G22" t="s">
-        <v>214</v>
       </c>
       <c r="H22" t="s">
         <v>215</v>
@@ -2054,10 +2057,10 @@
         <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c r="M22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N22" t="s">
         <v>217</v>
@@ -2065,31 +2068,31 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F23" t="s">
         <v>69</v>
       </c>
       <c r="G23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H23" t="s">
         <v>69</v>
       </c>
       <c r="I23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
         <v>22</v>
@@ -2109,46 +2112,46 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D24" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F24" t="s">
         <v>69</v>
       </c>
       <c r="G24" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H24" t="s">
         <v>70</v>
       </c>
       <c r="I24" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J24" t="s">
         <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
